--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colli\Documents\GitHub\triploid-walleye-labwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E67E64-0DDB-4A38-B098-E0FFC93363CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D436A270-E10D-4045-8578-1C6A9C38078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD725CB5-4406-45CB-828F-973D84CB1D4E}"/>
+    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{DD725CB5-4406-45CB-828F-973D84CB1D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$75</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="42">
   <si>
     <t>Waterbody</t>
   </si>
@@ -224,10 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -236,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD4BC15-F7D2-412F-AF10-D9652620033E}">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,21 +606,21 @@
       <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="2"/>
       <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
@@ -630,33 +633,33 @@
       <c r="E2" s="8"/>
       <c r="F2" s="5"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="6"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -870,6 +873,9 @@
       <c r="F9" s="1">
         <v>27</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
@@ -902,6 +908,9 @@
       <c r="F10" s="1">
         <v>36</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1182,13 +1191,13 @@
         <v>2019</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
-        <v>20190611</v>
+        <v>20190328</v>
       </c>
       <c r="F19" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>16</v>
@@ -1214,13 +1223,13 @@
         <v>2019</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
-        <v>20190612</v>
+        <v>20190329</v>
       </c>
       <c r="F20" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>16</v>
@@ -1246,13 +1255,13 @@
         <v>2019</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
-        <v>20190613</v>
+        <v>20190330</v>
       </c>
       <c r="F21" s="1">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>16</v>
@@ -1281,10 +1290,10 @@
         <v>31</v>
       </c>
       <c r="E22" s="1">
-        <v>20190614</v>
+        <v>20190611</v>
       </c>
       <c r="F22" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>16</v>
@@ -1307,16 +1316,16 @@
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1">
-        <v>20200316</v>
+        <v>20190612</v>
       </c>
       <c r="F23" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>16</v>
@@ -1339,16 +1348,16 @@
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1">
-        <v>20200317</v>
+        <v>20190613</v>
       </c>
       <c r="F24" s="1">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>16</v>
@@ -1371,16 +1380,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1">
-        <v>20200318</v>
+        <v>20190614</v>
       </c>
       <c r="F25" s="1">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>16</v>
@@ -1409,10 +1418,13 @@
         <v>32</v>
       </c>
       <c r="E26" s="1">
-        <v>20200319</v>
+        <v>20200316</v>
       </c>
       <c r="F26" s="1">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>16</v>
@@ -1441,10 +1453,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="1">
-        <v>20200320</v>
+        <v>20200317</v>
       </c>
       <c r="F27" s="1">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>16</v>
@@ -1470,13 +1485,13 @@
         <v>2020</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1">
-        <v>20201015</v>
+        <v>20200318</v>
       </c>
       <c r="F28" s="1">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>16</v>
@@ -1502,13 +1517,13 @@
         <v>2020</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1">
-        <v>20201016</v>
+        <v>20200319</v>
       </c>
       <c r="F29" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>16</v>
@@ -1534,13 +1549,13 @@
         <v>2020</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1">
-        <v>20201017</v>
+        <v>20200320</v>
       </c>
       <c r="F30" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>16</v>
@@ -1569,10 +1584,10 @@
         <v>33</v>
       </c>
       <c r="E31" s="1">
-        <v>20201018</v>
+        <v>20201015</v>
       </c>
       <c r="F31" s="1">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>16</v>
@@ -1595,16 +1610,16 @@
         <v>24</v>
       </c>
       <c r="C32" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1">
-        <v>20210412</v>
+        <v>20201016</v>
       </c>
       <c r="F32" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>16</v>
@@ -1615,8 +1630,8 @@
       <c r="K32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="1">
-        <v>1</v>
+      <c r="L32" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1627,16 +1642,16 @@
         <v>24</v>
       </c>
       <c r="C33" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1">
-        <v>20210413</v>
+        <v>20201017</v>
       </c>
       <c r="F33" s="1">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>16</v>
@@ -1647,8 +1662,8 @@
       <c r="K33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="1">
-        <v>1</v>
+      <c r="L33" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1659,16 +1674,16 @@
         <v>24</v>
       </c>
       <c r="C34" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1">
-        <v>20210414</v>
+        <v>20201018</v>
       </c>
       <c r="F34" s="1">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>16</v>
@@ -1679,8 +1694,8 @@
       <c r="K34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="1">
-        <v>1</v>
+      <c r="L34" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1697,10 +1712,10 @@
         <v>34</v>
       </c>
       <c r="E35" s="1">
-        <v>20210415</v>
+        <v>20210412</v>
       </c>
       <c r="F35" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>16</v>
@@ -1729,10 +1744,10 @@
         <v>34</v>
       </c>
       <c r="E36" s="1">
-        <v>20210416</v>
+        <v>20210413</v>
       </c>
       <c r="F36" s="1">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>16</v>
@@ -1758,10 +1773,25 @@
         <v>2021</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1">
-        <v>20210719</v>
+        <v>20210414</v>
+      </c>
+      <c r="F37" s="1">
+        <v>33</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,10 +1805,25 @@
         <v>2021</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1">
-        <v>20210720</v>
+        <v>20210415</v>
+      </c>
+      <c r="F38" s="1">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1792,10 +1837,25 @@
         <v>2021</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1">
-        <v>20210721</v>
+        <v>20210416</v>
+      </c>
+      <c r="F39" s="1">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,7 +1872,7 @@
         <v>35</v>
       </c>
       <c r="E40" s="1">
-        <v>20210722</v>
+        <v>20210719</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1829,94 +1889,58 @@
         <v>35</v>
       </c>
       <c r="E41" s="1">
-        <v>20210723</v>
+        <v>20210720</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E42" s="1">
-        <v>20180925</v>
-      </c>
-      <c r="F42" s="1">
-        <v>59</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>16</v>
+        <v>20210721</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E43" s="1">
-        <v>20180927</v>
-      </c>
-      <c r="F43" s="1">
-        <v>32</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>16</v>
+        <v>20210722</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E44" s="1">
-        <v>20181011</v>
-      </c>
-      <c r="F44" s="1">
-        <v>31</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>16</v>
+        <v>20210723</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1933,10 +1957,10 @@
         <v>19</v>
       </c>
       <c r="E45" s="1">
-        <v>20181115</v>
+        <v>20180925</v>
       </c>
       <c r="F45" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>16</v>
@@ -1956,16 +1980,16 @@
         <v>25</v>
       </c>
       <c r="C46" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1">
-        <v>20190619</v>
+        <v>20180927</v>
       </c>
       <c r="F46" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>16</v>
@@ -1985,16 +2009,16 @@
         <v>25</v>
       </c>
       <c r="C47" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="1">
-        <v>20190718</v>
+        <v>20181011</v>
       </c>
       <c r="F47" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>16</v>
@@ -2014,16 +2038,16 @@
         <v>25</v>
       </c>
       <c r="C48" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1">
-        <v>20190909</v>
+        <v>20181115</v>
       </c>
       <c r="F48" s="1">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>16</v>
@@ -2049,10 +2073,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="1">
-        <v>20190923</v>
+        <v>20190619</v>
       </c>
       <c r="F49" s="1">
-        <v>359</v>
+        <v>8</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>16</v>
@@ -2072,16 +2096,25 @@
         <v>25</v>
       </c>
       <c r="C50" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1">
-        <v>20191018</v>
+        <v>20190718</v>
       </c>
       <c r="F50" s="1">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2092,16 +2125,25 @@
         <v>25</v>
       </c>
       <c r="C51" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1">
-        <v>20200819</v>
+        <v>20190909</v>
       </c>
       <c r="F51" s="1">
-        <v>45</v>
+        <v>128</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2112,16 +2154,25 @@
         <v>25</v>
       </c>
       <c r="C52" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1">
-        <v>20200820</v>
+        <v>20190923</v>
       </c>
       <c r="F52" s="1">
-        <v>27</v>
+        <v>359</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2132,16 +2183,16 @@
         <v>25</v>
       </c>
       <c r="C53" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="1">
-        <v>20200910</v>
+        <v>20191018</v>
       </c>
       <c r="F53" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2158,10 +2209,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="1">
-        <v>20200911</v>
+        <v>20200819</v>
       </c>
       <c r="F54" s="1">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2178,70 +2229,70 @@
         <v>21</v>
       </c>
       <c r="E55" s="1">
-        <v>20201003</v>
+        <v>20200820</v>
       </c>
       <c r="F55" s="1">
-        <v>124</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E56" s="1">
-        <v>20180918</v>
+        <v>20200910</v>
       </c>
       <c r="F56" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1">
-        <v>20181025</v>
+        <v>20200911</v>
       </c>
       <c r="F57" s="1">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E58" s="1">
-        <v>20181112</v>
+        <v>20201003</v>
       </c>
       <c r="F58" s="1">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2258,10 +2309,10 @@
         <v>27</v>
       </c>
       <c r="E59" s="1">
-        <v>20181120</v>
+        <v>20180918</v>
       </c>
       <c r="F59" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2278,10 +2329,10 @@
         <v>27</v>
       </c>
       <c r="E60" s="1">
-        <v>20190620</v>
+        <v>20181025</v>
       </c>
       <c r="F60" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2292,16 +2343,16 @@
         <v>26</v>
       </c>
       <c r="C61" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E61" s="1">
-        <v>20190717</v>
+        <v>20181112</v>
       </c>
       <c r="F61" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2312,16 +2363,16 @@
         <v>26</v>
       </c>
       <c r="C62" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E62" s="1">
-        <v>20190910</v>
+        <v>20181120</v>
       </c>
       <c r="F62" s="1">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2332,16 +2383,16 @@
         <v>26</v>
       </c>
       <c r="C63" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E63" s="1">
-        <v>20190910</v>
+        <v>20190620</v>
       </c>
       <c r="F63" s="1">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2358,10 +2409,10 @@
         <v>37</v>
       </c>
       <c r="E64" s="1">
-        <v>20191002</v>
+        <v>20190717</v>
       </c>
       <c r="F64" s="1">
-        <v>143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2378,10 +2429,10 @@
         <v>37</v>
       </c>
       <c r="E65" s="1">
-        <v>20191007</v>
+        <v>20190910</v>
       </c>
       <c r="F65" s="1">
-        <v>36</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2398,10 +2449,10 @@
         <v>37</v>
       </c>
       <c r="E66" s="1">
-        <v>20191022</v>
+        <v>20190912</v>
       </c>
       <c r="F66" s="1">
-        <v>19</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2412,16 +2463,16 @@
         <v>26</v>
       </c>
       <c r="C67" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67" s="1">
-        <v>20200916</v>
+        <v>20191002</v>
       </c>
       <c r="F67" s="1">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,16 +2483,16 @@
         <v>26</v>
       </c>
       <c r="C68" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1">
-        <v>20201002</v>
+        <v>20191007</v>
       </c>
       <c r="F68" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2452,16 +2503,16 @@
         <v>26</v>
       </c>
       <c r="C69" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E69" s="1">
-        <v>20201021</v>
+        <v>20191022</v>
       </c>
       <c r="F69" s="1">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,10 +2529,10 @@
         <v>38</v>
       </c>
       <c r="E70" s="1">
-        <v>20201022</v>
+        <v>20200916</v>
       </c>
       <c r="F70" s="1">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2498,33 +2549,101 @@
         <v>38</v>
       </c>
       <c r="E71" s="1">
-        <v>20201118</v>
+        <v>20201002</v>
       </c>
       <c r="F71" s="1">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="1">
+        <v>20201021</v>
+      </c>
+      <c r="F72" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="1">
+        <v>20201022</v>
+      </c>
+      <c r="F73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="1">
+        <v>20201118</v>
+      </c>
+      <c r="F74" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C75" s="1">
         <v>2021</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E75" s="1">
         <v>20210330</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F75" s="1">
         <v>43</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S75" xr:uid="{2FD4BC15-F7D2-412F-AF10-D9652620033E}">
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+  </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="B1:B2"/>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colli\Documents\GitHub\triploid-walleye-labwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D436A270-E10D-4045-8578-1C6A9C38078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FED339-0968-4A01-B983-A84CC8C10A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{DD725CB5-4406-45CB-828F-973D84CB1D4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DD725CB5-4406-45CB-828F-973D84CB1D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="42">
   <si>
     <t>Waterbody</t>
   </si>
@@ -562,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD4BC15-F7D2-412F-AF10-D9652620033E}">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +693,9 @@
       <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -725,6 +728,9 @@
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -757,6 +763,9 @@
       <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -789,6 +798,9 @@
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -821,6 +833,9 @@
       <c r="L7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -853,6 +868,9 @@
       <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -888,6 +906,9 @@
       <c r="L9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -923,6 +944,9 @@
       <c r="L10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -955,6 +979,9 @@
       <c r="L11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -987,6 +1014,9 @@
       <c r="L12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1019,6 +1049,9 @@
       <c r="L13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1051,6 +1084,9 @@
       <c r="L14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1083,6 +1119,9 @@
       <c r="L15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O15" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1115,8 +1154,11 @@
       <c r="L16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,8 +1189,11 @@
       <c r="L17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1224,11 @@
       <c r="L18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1259,11 @@
       <c r="L19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1294,11 @@
       <c r="L20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1329,11 @@
       <c r="L21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,8 +1364,11 @@
       <c r="L22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1339,8 +1399,11 @@
       <c r="L23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1371,8 +1434,11 @@
       <c r="L24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1403,8 +1469,11 @@
       <c r="L25" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1438,8 +1507,11 @@
       <c r="L26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1473,8 +1545,11 @@
       <c r="L27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1505,8 +1580,11 @@
       <c r="L28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1537,8 +1615,11 @@
       <c r="L29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1569,8 +1650,11 @@
       <c r="L30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1601,8 +1685,11 @@
       <c r="L31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1633,8 +1720,11 @@
       <c r="L32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1665,8 +1755,11 @@
       <c r="L33" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1697,8 +1790,11 @@
       <c r="L34" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1729,8 +1825,11 @@
       <c r="L35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1761,8 +1860,11 @@
       <c r="L36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1793,8 +1895,11 @@
       <c r="L37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1825,8 +1930,11 @@
       <c r="L38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1857,8 +1965,11 @@
       <c r="L39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1872,10 +1983,22 @@
         <v>35</v>
       </c>
       <c r="E40" s="1">
-        <v>20210719</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210720</v>
+      </c>
+      <c r="F40" s="1">
+        <v>50</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1889,10 +2012,22 @@
         <v>35</v>
       </c>
       <c r="E41" s="1">
-        <v>20210720</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210721</v>
+      </c>
+      <c r="F41" s="1">
+        <v>51</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1906,44 +2041,86 @@
         <v>35</v>
       </c>
       <c r="E42" s="1">
-        <v>20210721</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20210722</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E43" s="1">
-        <v>20210722</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20180925</v>
+      </c>
+      <c r="F43" s="1">
+        <v>59</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1">
-        <v>20210723</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20180927</v>
+      </c>
+      <c r="F44" s="1">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1957,10 +2134,10 @@
         <v>19</v>
       </c>
       <c r="E45" s="1">
-        <v>20180925</v>
+        <v>20181011</v>
       </c>
       <c r="F45" s="1">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>16</v>
@@ -1971,8 +2148,11 @@
       <c r="K45" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -1986,10 +2166,10 @@
         <v>19</v>
       </c>
       <c r="E46" s="1">
-        <v>20180927</v>
+        <v>20181115</v>
       </c>
       <c r="F46" s="1">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>16</v>
@@ -2000,8 +2180,11 @@
       <c r="K46" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -2009,16 +2192,16 @@
         <v>25</v>
       </c>
       <c r="C47" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1">
-        <v>20181011</v>
+        <v>20190619</v>
       </c>
       <c r="F47" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>16</v>
@@ -2029,8 +2212,11 @@
       <c r="K47" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -2038,16 +2224,16 @@
         <v>25</v>
       </c>
       <c r="C48" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1">
-        <v>20181115</v>
+        <v>20190718</v>
       </c>
       <c r="F48" s="1">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>16</v>
@@ -2058,8 +2244,11 @@
       <c r="K48" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -2073,10 +2262,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="1">
-        <v>20190619</v>
+        <v>20190909</v>
       </c>
       <c r="F49" s="1">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>16</v>
@@ -2087,8 +2276,11 @@
       <c r="K49" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2102,10 +2294,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="1">
-        <v>20190718</v>
+        <v>20190923</v>
       </c>
       <c r="F50" s="1">
-        <v>15</v>
+        <v>359</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>16</v>
@@ -2116,8 +2308,11 @@
       <c r="K50" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -2131,22 +2326,16 @@
         <v>20</v>
       </c>
       <c r="E51" s="1">
-        <v>20190909</v>
+        <v>20191018</v>
       </c>
       <c r="F51" s="1">
-        <v>128</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2154,28 +2343,22 @@
         <v>25</v>
       </c>
       <c r="C52" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1">
-        <v>20190923</v>
+        <v>20200819</v>
       </c>
       <c r="F52" s="1">
-        <v>359</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -2183,19 +2366,22 @@
         <v>25</v>
       </c>
       <c r="C53" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1">
-        <v>20191018</v>
+        <v>20200820</v>
       </c>
       <c r="F53" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -2209,13 +2395,16 @@
         <v>21</v>
       </c>
       <c r="E54" s="1">
-        <v>20200819</v>
+        <v>20200910</v>
       </c>
       <c r="F54" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -2229,13 +2418,16 @@
         <v>21</v>
       </c>
       <c r="E55" s="1">
-        <v>20200820</v>
+        <v>20200911</v>
       </c>
       <c r="F55" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -2249,53 +2441,62 @@
         <v>21</v>
       </c>
       <c r="E56" s="1">
-        <v>20200910</v>
+        <v>20201003</v>
       </c>
       <c r="F56" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1">
+        <v>20180918</v>
+      </c>
+      <c r="F57" s="1">
+        <v>24</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1">
+        <v>20181025</v>
+      </c>
+      <c r="F58" s="1">
         <v>25</v>
       </c>
-      <c r="C57" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="1">
-        <v>20200911</v>
-      </c>
-      <c r="F57" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="1">
-        <v>20201003</v>
-      </c>
-      <c r="F58" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -2309,13 +2510,16 @@
         <v>27</v>
       </c>
       <c r="E59" s="1">
-        <v>20180918</v>
+        <v>20181112</v>
       </c>
       <c r="F59" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
@@ -2329,13 +2533,16 @@
         <v>27</v>
       </c>
       <c r="E60" s="1">
-        <v>20181025</v>
+        <v>20181120</v>
       </c>
       <c r="F60" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -2349,13 +2556,16 @@
         <v>27</v>
       </c>
       <c r="E61" s="1">
-        <v>20181112</v>
+        <v>20190620</v>
       </c>
       <c r="F61" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,19 +2573,22 @@
         <v>26</v>
       </c>
       <c r="C62" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E62" s="1">
-        <v>20181120</v>
+        <v>20190717</v>
       </c>
       <c r="F62" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
@@ -2383,19 +2596,22 @@
         <v>26</v>
       </c>
       <c r="C63" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E63" s="1">
-        <v>20190620</v>
+        <v>20190910</v>
       </c>
       <c r="F63" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -2409,13 +2625,16 @@
         <v>37</v>
       </c>
       <c r="E64" s="1">
-        <v>20190717</v>
+        <v>20190912</v>
       </c>
       <c r="F64" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
@@ -2429,13 +2648,16 @@
         <v>37</v>
       </c>
       <c r="E65" s="1">
-        <v>20190910</v>
+        <v>20191002</v>
       </c>
       <c r="F65" s="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
@@ -2449,13 +2671,16 @@
         <v>37</v>
       </c>
       <c r="E66" s="1">
-        <v>20190912</v>
+        <v>20191007</v>
       </c>
       <c r="F66" s="1">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
@@ -2469,13 +2694,16 @@
         <v>37</v>
       </c>
       <c r="E67" s="1">
-        <v>20191002</v>
+        <v>20191022</v>
       </c>
       <c r="F67" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
@@ -2483,19 +2711,22 @@
         <v>26</v>
       </c>
       <c r="C68" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1">
+        <v>20200916</v>
+      </c>
+      <c r="F68" s="1">
         <v>37</v>
       </c>
-      <c r="E68" s="1">
-        <v>20191007</v>
-      </c>
-      <c r="F68" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>22</v>
       </c>
@@ -2503,19 +2734,22 @@
         <v>26</v>
       </c>
       <c r="C69" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E69" s="1">
-        <v>20191022</v>
+        <v>20201002</v>
       </c>
       <c r="F69" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>22</v>
       </c>
@@ -2529,13 +2763,16 @@
         <v>38</v>
       </c>
       <c r="E70" s="1">
-        <v>20200916</v>
+        <v>20201021</v>
       </c>
       <c r="F70" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
@@ -2549,13 +2786,16 @@
         <v>38</v>
       </c>
       <c r="E71" s="1">
-        <v>20201002</v>
+        <v>20201022</v>
       </c>
       <c r="F71" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
@@ -2569,74 +2809,40 @@
         <v>38</v>
       </c>
       <c r="E72" s="1">
-        <v>20201021</v>
+        <v>20201118</v>
       </c>
       <c r="F72" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E73" s="1">
-        <v>20201022</v>
+        <v>20210330</v>
       </c>
       <c r="F73" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="1">
-        <v>20201118</v>
-      </c>
-      <c r="F74" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="1">
-        <v>20210330</v>
-      </c>
-      <c r="F75" s="1">
         <v>43</v>
       </c>
+      <c r="O73" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S75" xr:uid="{2FD4BC15-F7D2-412F-AF10-D9652620033E}">
+  <autoFilter ref="A1:S73" xr:uid="{2FD4BC15-F7D2-412F-AF10-D9652620033E}">
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colli\Documents\GitHub\triploid-walleye-labwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FED339-0968-4A01-B983-A84CC8C10A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E11EA0-8483-4DEA-B289-58FA3A4B12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DD725CB5-4406-45CB-828F-973D84CB1D4E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD725CB5-4406-45CB-828F-973D84CB1D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="43">
   <si>
     <t>Waterbody</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>HST2021</t>
+  </si>
+  <si>
+    <t>NAR2021FA</t>
   </si>
 </sst>
 </file>
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD4BC15-F7D2-412F-AF10-D9652620033E}">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,6 +684,9 @@
       <c r="F3" s="1">
         <v>23</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
@@ -716,6 +722,9 @@
       <c r="F4" s="1">
         <v>66</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
@@ -751,6 +760,9 @@
       <c r="F5" s="1">
         <v>14</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
@@ -786,6 +798,9 @@
       <c r="F6" s="1">
         <v>28</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
@@ -821,6 +836,9 @@
       <c r="F7" s="1">
         <v>4</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
@@ -856,6 +874,9 @@
       <c r="F8" s="1">
         <v>30</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
@@ -967,6 +988,9 @@
       <c r="F11" s="1">
         <v>3</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1002,6 +1026,9 @@
       <c r="F12" s="1">
         <v>15</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1037,6 +1064,9 @@
       <c r="F13" s="1">
         <v>14</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1072,6 +1102,9 @@
       <c r="F14" s="1">
         <v>7</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,6 +1140,9 @@
       <c r="F15" s="1">
         <v>8</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1142,6 +1178,9 @@
       <c r="F16" s="1">
         <v>14</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1177,6 +1216,9 @@
       <c r="F17" s="1">
         <v>18</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1212,6 +1254,9 @@
       <c r="F18" s="1">
         <v>15</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1247,6 +1292,9 @@
       <c r="F19" s="1">
         <v>7</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1282,6 +1330,9 @@
       <c r="F20" s="1">
         <v>25</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1317,6 +1368,9 @@
       <c r="F21" s="1">
         <v>22</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,6 +1406,9 @@
       <c r="F22" s="1">
         <v>35</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1387,6 +1444,9 @@
       <c r="F23" s="1">
         <v>31</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,6 +1482,9 @@
       <c r="F24" s="1">
         <v>42</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1457,6 +1520,9 @@
       <c r="F25" s="1">
         <v>40</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1568,6 +1634,9 @@
       <c r="F28" s="1">
         <v>11</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1603,6 +1672,9 @@
       <c r="F29" s="1">
         <v>25</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1638,6 +1710,9 @@
       <c r="F30" s="1">
         <v>13</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1673,6 +1748,9 @@
       <c r="F31" s="1">
         <v>107</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,6 +1786,9 @@
       <c r="F32" s="1">
         <v>14</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,6 +1824,9 @@
       <c r="F33" s="1">
         <v>23</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1778,6 +1862,9 @@
       <c r="F34" s="1">
         <v>46</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1813,6 +1900,9 @@
       <c r="F35" s="1">
         <v>25</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1848,6 +1938,9 @@
       <c r="F36" s="1">
         <v>44</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1883,6 +1976,9 @@
       <c r="F37" s="1">
         <v>33</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>16</v>
       </c>
@@ -1918,6 +2014,9 @@
       <c r="F38" s="1">
         <v>34</v>
       </c>
+      <c r="G38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>16</v>
       </c>
@@ -1953,6 +2052,9 @@
       <c r="F39" s="1">
         <v>14</v>
       </c>
+      <c r="G39" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>16</v>
       </c>
@@ -1988,6 +2090,9 @@
       <c r="F40" s="1">
         <v>50</v>
       </c>
+      <c r="G40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2017,6 +2122,9 @@
       <c r="F41" s="1">
         <v>51</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>16</v>
       </c>
@@ -2046,6 +2154,9 @@
       <c r="F42" s="1">
         <v>44</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2058,65 +2169,59 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1">
-        <v>20180925</v>
+        <v>20211018</v>
       </c>
       <c r="F43" s="1">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O43" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1">
-        <v>20180927</v>
+        <v>20211019</v>
       </c>
       <c r="F44" s="1">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2134,10 +2239,10 @@
         <v>19</v>
       </c>
       <c r="E45" s="1">
-        <v>20181011</v>
+        <v>20180925</v>
       </c>
       <c r="F45" s="1">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>16</v>
@@ -2166,10 +2271,10 @@
         <v>19</v>
       </c>
       <c r="E46" s="1">
-        <v>20181115</v>
+        <v>20180927</v>
       </c>
       <c r="F46" s="1">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>16</v>
@@ -2192,16 +2297,16 @@
         <v>25</v>
       </c>
       <c r="C47" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="1">
-        <v>20190619</v>
+        <v>20181011</v>
       </c>
       <c r="F47" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>16</v>
@@ -2224,16 +2329,16 @@
         <v>25</v>
       </c>
       <c r="C48" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1">
-        <v>20190718</v>
+        <v>20181115</v>
       </c>
       <c r="F48" s="1">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>16</v>
@@ -2262,10 +2367,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="1">
-        <v>20190909</v>
+        <v>20190619</v>
       </c>
       <c r="F49" s="1">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>16</v>
@@ -2294,10 +2399,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="1">
-        <v>20190923</v>
+        <v>20190718</v>
       </c>
       <c r="F50" s="1">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>16</v>
@@ -2326,10 +2431,19 @@
         <v>20</v>
       </c>
       <c r="E51" s="1">
-        <v>20191018</v>
+        <v>20190909</v>
       </c>
       <c r="F51" s="1">
-        <v>65</v>
+        <v>128</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>16</v>
@@ -2343,16 +2457,25 @@
         <v>25</v>
       </c>
       <c r="C52" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1">
-        <v>20200819</v>
+        <v>20190923</v>
       </c>
       <c r="F52" s="1">
-        <v>45</v>
+        <v>359</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>16</v>
@@ -2366,16 +2489,16 @@
         <v>25</v>
       </c>
       <c r="C53" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="1">
-        <v>20200820</v>
+        <v>20191018</v>
       </c>
       <c r="F53" s="1">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>16</v>
@@ -2395,10 +2518,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="1">
-        <v>20200910</v>
+        <v>20200819</v>
       </c>
       <c r="F54" s="1">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>16</v>
@@ -2418,10 +2541,10 @@
         <v>21</v>
       </c>
       <c r="E55" s="1">
-        <v>20200911</v>
+        <v>20200820</v>
       </c>
       <c r="F55" s="1">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>16</v>
@@ -2441,10 +2564,10 @@
         <v>21</v>
       </c>
       <c r="E56" s="1">
-        <v>20201003</v>
+        <v>20200910</v>
       </c>
       <c r="F56" s="1">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>16</v>
@@ -2452,22 +2575,22 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1">
-        <v>20180918</v>
+        <v>20200911</v>
       </c>
       <c r="F57" s="1">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>16</v>
@@ -2475,22 +2598,22 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E58" s="1">
-        <v>20181025</v>
+        <v>20201003</v>
       </c>
       <c r="F58" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>16</v>
@@ -2510,10 +2633,10 @@
         <v>27</v>
       </c>
       <c r="E59" s="1">
-        <v>20181112</v>
+        <v>20180918</v>
       </c>
       <c r="F59" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>16</v>
@@ -2533,10 +2656,10 @@
         <v>27</v>
       </c>
       <c r="E60" s="1">
-        <v>20181120</v>
+        <v>20181025</v>
       </c>
       <c r="F60" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>16</v>
@@ -2556,10 +2679,10 @@
         <v>27</v>
       </c>
       <c r="E61" s="1">
-        <v>20190620</v>
+        <v>20181112</v>
       </c>
       <c r="F61" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>16</v>
@@ -2573,16 +2696,16 @@
         <v>26</v>
       </c>
       <c r="C62" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E62" s="1">
-        <v>20190717</v>
+        <v>20181120</v>
       </c>
       <c r="F62" s="1">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>16</v>
@@ -2596,16 +2719,16 @@
         <v>26</v>
       </c>
       <c r="C63" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E63" s="1">
-        <v>20190910</v>
+        <v>20190620</v>
       </c>
       <c r="F63" s="1">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>16</v>
@@ -2625,10 +2748,10 @@
         <v>37</v>
       </c>
       <c r="E64" s="1">
-        <v>20190912</v>
+        <v>20190717</v>
       </c>
       <c r="F64" s="1">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>16</v>
@@ -2648,10 +2771,10 @@
         <v>37</v>
       </c>
       <c r="E65" s="1">
-        <v>20191002</v>
+        <v>20190910</v>
       </c>
       <c r="F65" s="1">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>16</v>
@@ -2671,10 +2794,10 @@
         <v>37</v>
       </c>
       <c r="E66" s="1">
-        <v>20191007</v>
+        <v>20190912</v>
       </c>
       <c r="F66" s="1">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>16</v>
@@ -2694,10 +2817,10 @@
         <v>37</v>
       </c>
       <c r="E67" s="1">
-        <v>20191022</v>
+        <v>20191002</v>
       </c>
       <c r="F67" s="1">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>16</v>
@@ -2711,16 +2834,16 @@
         <v>26</v>
       </c>
       <c r="C68" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1">
-        <v>20200916</v>
+        <v>20191007</v>
       </c>
       <c r="F68" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>16</v>
@@ -2734,16 +2857,16 @@
         <v>26</v>
       </c>
       <c r="C69" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E69" s="1">
-        <v>20201002</v>
+        <v>20191022</v>
       </c>
       <c r="F69" s="1">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>16</v>
@@ -2763,10 +2886,10 @@
         <v>38</v>
       </c>
       <c r="E70" s="1">
-        <v>20201021</v>
+        <v>20200916</v>
       </c>
       <c r="F70" s="1">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>16</v>
@@ -2786,10 +2909,10 @@
         <v>38</v>
       </c>
       <c r="E71" s="1">
-        <v>20201022</v>
+        <v>20201002</v>
       </c>
       <c r="F71" s="1">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>16</v>
@@ -2809,10 +2932,10 @@
         <v>38</v>
       </c>
       <c r="E72" s="1">
-        <v>20201118</v>
+        <v>20201021</v>
       </c>
       <c r="F72" s="1">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>16</v>
@@ -2820,29 +2943,75 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="1">
+        <v>20201022</v>
+      </c>
+      <c r="F73" s="1">
+        <v>5</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="1">
+        <v>20201118</v>
+      </c>
+      <c r="F74" s="1">
+        <v>42</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C75" s="1">
         <v>2021</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E75" s="1">
         <v>20210330</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F75" s="1">
         <v>43</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S73" xr:uid="{2FD4BC15-F7D2-412F-AF10-D9652620033E}">
+  <autoFilter ref="A1:S75" xr:uid="{2FD4BC15-F7D2-412F-AF10-D9652620033E}">
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
